--- a/tamgdenasnet/raw_data/cost2023.xlsx
+++ b/tamgdenasnet/raw_data/cost2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\tamgdenasnet\tamgdenasnet\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0598BF-9EAF-48D3-9EC0-4244A68EF66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ADA8BF-E479-4933-9D09-5273512BEF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{215E1F11-4FA8-4AA0-B7DB-E7EEB6BBE05C}"/>
   </bookViews>
@@ -339,9 +339,6 @@
     <t>Mongolia</t>
   </si>
   <si>
-    <t>Kosovo (Disputed Territory)</t>
-  </si>
-  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
@@ -454,6 +451,9 @@
   </si>
   <si>
     <t>United States of America</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
   </si>
 </sst>
 </file>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C561F603-AD31-4A7A-A85A-03E8D5650182}">
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,7 +1229,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="1">
         <v>72.400000000000006</v>
@@ -1983,7 +1983,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" s="1">
         <v>54.2</v>
@@ -2035,7 +2035,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C47" s="1">
         <v>53.3</v>
@@ -2789,7 +2789,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C76" s="1">
         <v>40.799999999999997</v>
@@ -3283,7 +3283,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C95" s="1">
         <v>35.799999999999997</v>
@@ -3309,7 +3309,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C96" s="1">
         <v>35.700000000000003</v>
@@ -3335,7 +3335,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C97" s="1">
         <v>35.4</v>
@@ -3361,7 +3361,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C98" s="1">
         <v>35.200000000000003</v>
@@ -3387,7 +3387,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C99" s="1">
         <v>35.1</v>
@@ -3439,7 +3439,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C101" s="1">
         <v>35</v>
@@ -3491,7 +3491,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C103" s="1">
         <v>34.4</v>
@@ -3595,7 +3595,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C107" s="1">
         <v>32.4</v>
@@ -3621,7 +3621,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C108" s="1">
         <v>32.4</v>
@@ -3673,7 +3673,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C110" s="1">
         <v>32.1</v>
@@ -3699,7 +3699,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C111" s="1">
         <v>31.9</v>
@@ -3725,7 +3725,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C112" s="1">
         <v>31.4</v>
@@ -3803,7 +3803,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C115" s="1">
         <v>31.2</v>
@@ -3829,7 +3829,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C116" s="1">
         <v>31.2</v>
@@ -3855,7 +3855,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C117" s="1">
         <v>30.9</v>
@@ -3881,7 +3881,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C118" s="1">
         <v>30.8</v>
@@ -3907,7 +3907,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C119" s="1">
         <v>30</v>
@@ -3933,7 +3933,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C120" s="1">
         <v>29.3</v>
@@ -3959,7 +3959,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C121" s="1">
         <v>28.9</v>
@@ -3985,7 +3985,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122" s="1">
         <v>28.6</v>
@@ -4011,7 +4011,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="C123" s="1">
         <v>28.4</v>
@@ -4089,7 +4089,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C126" s="1">
         <v>27.6</v>
@@ -4115,7 +4115,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C127" s="1">
         <v>27</v>
@@ -4141,7 +4141,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C128" s="1">
         <v>26.7</v>
@@ -4167,7 +4167,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C129" s="1">
         <v>26.6</v>
@@ -4193,7 +4193,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C130" s="1">
         <v>26.5</v>
@@ -4219,7 +4219,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C131" s="1">
         <v>26.1</v>
@@ -4245,7 +4245,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C132" s="1">
         <v>25.9</v>
@@ -4271,7 +4271,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C133" s="1">
         <v>25.6</v>
@@ -4323,7 +4323,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C135" s="1">
         <v>24.8</v>
@@ -4349,7 +4349,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C136" s="1">
         <v>24.2</v>
@@ -4375,7 +4375,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C137" s="1">
         <v>23.1</v>
@@ -4401,7 +4401,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C138" s="1">
         <v>22.4</v>
@@ -4427,7 +4427,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C139" s="1">
         <v>21.6</v>
@@ -4453,7 +4453,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C140" s="1">
         <v>18</v>
